--- a/data_voor_swing/aggregatietabellen/deelgemeente_gemeente.xlsx
+++ b/data_voor_swing/aggregatietabellen/deelgemeente_gemeente.xlsx
@@ -382,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1375"/>
+  <dimension ref="A1:B1376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -14133,10 +14133,20 @@
     <row r="1375" spans="1:2" s="0" outlineLevel="0">
       <c r="A1375" t="inlineStr">
         <is>
+          <t>99993ONBE</t>
+        </is>
+      </c>
+      <c r="B1375" s="23">
+        <v>99993</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:2" s="0" outlineLevel="0">
+      <c r="A1376" t="inlineStr">
+        <is>
           <t>99999ONBE</t>
         </is>
       </c>
-      <c r="B1375" s="23">
+      <c r="B1376" s="23">
         <v>99999</v>
       </c>
     </row>

--- a/data_voor_swing/aggregatietabellen/deelgemeente_gemeente.xlsx
+++ b/data_voor_swing/aggregatietabellen/deelgemeente_gemeente.xlsx
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B17" s="23">
-        <v>11007</v>
+        <v>11002</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="0" outlineLevel="0">
@@ -1047,7 +1047,7 @@
         </is>
       </c>
       <c r="B66" s="23">
-        <v>11056</v>
+        <v>46030</v>
       </c>
     </row>
     <row r="67" spans="1:2" s="0" outlineLevel="0">
@@ -1057,7 +1057,7 @@
         </is>
       </c>
       <c r="B67" s="23">
-        <v>11056</v>
+        <v>46030</v>
       </c>
     </row>
     <row r="68" spans="1:2" s="0" outlineLevel="0">
@@ -1067,7 +1067,7 @@
         </is>
       </c>
       <c r="B68" s="23">
-        <v>11056</v>
+        <v>46030</v>
       </c>
     </row>
     <row r="69" spans="1:2" s="0" outlineLevel="0">
@@ -2667,7 +2667,7 @@
         </is>
       </c>
       <c r="B228" s="23">
-        <v>23023</v>
+        <v>23106</v>
       </c>
     </row>
     <row r="229" spans="1:2" s="0" outlineLevel="0">
@@ -2677,7 +2677,7 @@
         </is>
       </c>
       <c r="B229" s="23">
-        <v>23023</v>
+        <v>23106</v>
       </c>
     </row>
     <row r="230" spans="1:2" s="0" outlineLevel="0">
@@ -2687,7 +2687,7 @@
         </is>
       </c>
       <c r="B230" s="23">
-        <v>23023</v>
+        <v>23106</v>
       </c>
     </row>
     <row r="231" spans="1:2" s="0" outlineLevel="0">
@@ -2697,7 +2697,7 @@
         </is>
       </c>
       <c r="B231" s="23">
-        <v>23023</v>
+        <v>23106</v>
       </c>
     </row>
     <row r="232" spans="1:2" s="0" outlineLevel="0">
@@ -2707,7 +2707,7 @@
         </is>
       </c>
       <c r="B232" s="23">
-        <v>23024</v>
+        <v>23106</v>
       </c>
     </row>
     <row r="233" spans="1:2" s="0" outlineLevel="0">
@@ -2717,7 +2717,7 @@
         </is>
       </c>
       <c r="B233" s="23">
-        <v>23024</v>
+        <v>23106</v>
       </c>
     </row>
     <row r="234" spans="1:2" s="0" outlineLevel="0">
@@ -2727,7 +2727,7 @@
         </is>
       </c>
       <c r="B234" s="23">
-        <v>23024</v>
+        <v>23106</v>
       </c>
     </row>
     <row r="235" spans="1:2" s="0" outlineLevel="0">
@@ -2737,7 +2737,7 @@
         </is>
       </c>
       <c r="B235" s="23">
-        <v>23024</v>
+        <v>23106</v>
       </c>
     </row>
     <row r="236" spans="1:2" s="0" outlineLevel="0">
@@ -2747,7 +2747,7 @@
         </is>
       </c>
       <c r="B236" s="23">
-        <v>23024</v>
+        <v>23106</v>
       </c>
     </row>
     <row r="237" spans="1:2" s="0" outlineLevel="0">
@@ -2847,7 +2847,7 @@
         </is>
       </c>
       <c r="B246" s="23">
-        <v>23032</v>
+        <v>23106</v>
       </c>
     </row>
     <row r="247" spans="1:2" s="0" outlineLevel="0">
@@ -2857,7 +2857,7 @@
         </is>
       </c>
       <c r="B247" s="23">
-        <v>23032</v>
+        <v>23106</v>
       </c>
     </row>
     <row r="248" spans="1:2" s="0" outlineLevel="0">
@@ -2867,7 +2867,7 @@
         </is>
       </c>
       <c r="B248" s="23">
-        <v>23032</v>
+        <v>23106</v>
       </c>
     </row>
     <row r="249" spans="1:2" s="0" outlineLevel="0">
@@ -2877,7 +2877,7 @@
         </is>
       </c>
       <c r="B249" s="23">
-        <v>23032</v>
+        <v>23106</v>
       </c>
     </row>
     <row r="250" spans="1:2" s="0" outlineLevel="0">
@@ -7737,7 +7737,7 @@
         </is>
       </c>
       <c r="B735" s="23">
-        <v>37007</v>
+        <v>37022</v>
       </c>
     </row>
     <row r="736" spans="1:2" s="0" outlineLevel="0">
@@ -7787,7 +7787,7 @@
         </is>
       </c>
       <c r="B740" s="23">
-        <v>37012</v>
+        <v>37021</v>
       </c>
     </row>
     <row r="741" spans="1:2" s="0" outlineLevel="0">
@@ -7797,7 +7797,7 @@
         </is>
       </c>
       <c r="B741" s="23">
-        <v>37015</v>
+        <v>37022</v>
       </c>
     </row>
     <row r="742" spans="1:2" s="0" outlineLevel="0">
@@ -7807,7 +7807,7 @@
         </is>
       </c>
       <c r="B742" s="23">
-        <v>37015</v>
+        <v>37022</v>
       </c>
     </row>
     <row r="743" spans="1:2" s="0" outlineLevel="0">
@@ -7817,7 +7817,7 @@
         </is>
       </c>
       <c r="B743" s="23">
-        <v>37015</v>
+        <v>37022</v>
       </c>
     </row>
     <row r="744" spans="1:2" s="0" outlineLevel="0">
@@ -7827,7 +7827,7 @@
         </is>
       </c>
       <c r="B744" s="23">
-        <v>37015</v>
+        <v>37022</v>
       </c>
     </row>
     <row r="745" spans="1:2" s="0" outlineLevel="0">
@@ -7837,7 +7837,7 @@
         </is>
       </c>
       <c r="B745" s="23">
-        <v>37015</v>
+        <v>37022</v>
       </c>
     </row>
     <row r="746" spans="1:2" s="0" outlineLevel="0">
@@ -7887,7 +7887,7 @@
         </is>
       </c>
       <c r="B750" s="23">
-        <v>37018</v>
+        <v>37021</v>
       </c>
     </row>
     <row r="751" spans="1:2" s="0" outlineLevel="0">
@@ -7897,7 +7897,7 @@
         </is>
       </c>
       <c r="B751" s="23">
-        <v>37018</v>
+        <v>37021</v>
       </c>
     </row>
     <row r="752" spans="1:2" s="0" outlineLevel="0">
@@ -7907,7 +7907,7 @@
         </is>
       </c>
       <c r="B752" s="23">
-        <v>37018</v>
+        <v>37021</v>
       </c>
     </row>
     <row r="753" spans="1:2" s="0" outlineLevel="0">
@@ -9867,7 +9867,7 @@
         </is>
       </c>
       <c r="B948" s="23">
-        <v>44012</v>
+        <v>44086</v>
       </c>
     </row>
     <row r="949" spans="1:2" s="0" outlineLevel="0">
@@ -9877,7 +9877,7 @@
         </is>
       </c>
       <c r="B949" s="23">
-        <v>44012</v>
+        <v>44086</v>
       </c>
     </row>
     <row r="950" spans="1:2" s="0" outlineLevel="0">
@@ -9887,7 +9887,7 @@
         </is>
       </c>
       <c r="B950" s="23">
-        <v>44012</v>
+        <v>44086</v>
       </c>
     </row>
     <row r="951" spans="1:2" s="0" outlineLevel="0">
@@ -10217,7 +10217,7 @@
         </is>
       </c>
       <c r="B983" s="23">
-        <v>44034</v>
+        <v>44087</v>
       </c>
     </row>
     <row r="984" spans="1:2" s="0" outlineLevel="0">
@@ -10227,7 +10227,7 @@
         </is>
       </c>
       <c r="B984" s="23">
-        <v>44034</v>
+        <v>44087</v>
       </c>
     </row>
     <row r="985" spans="1:2" s="0" outlineLevel="0">
@@ -10237,7 +10237,7 @@
         </is>
       </c>
       <c r="B985" s="23">
-        <v>44034</v>
+        <v>44087</v>
       </c>
     </row>
     <row r="986" spans="1:2" s="0" outlineLevel="0">
@@ -10247,7 +10247,7 @@
         </is>
       </c>
       <c r="B986" s="23">
-        <v>44034</v>
+        <v>44087</v>
       </c>
     </row>
     <row r="987" spans="1:2" s="0" outlineLevel="0">
@@ -10257,7 +10257,7 @@
         </is>
       </c>
       <c r="B987" s="23">
-        <v>44034</v>
+        <v>44087</v>
       </c>
     </row>
     <row r="988" spans="1:2" s="0" outlineLevel="0">
@@ -10287,7 +10287,7 @@
         </is>
       </c>
       <c r="B990" s="23">
-        <v>44040</v>
+        <v>44088</v>
       </c>
     </row>
     <row r="991" spans="1:2" s="0" outlineLevel="0">
@@ -10297,7 +10297,7 @@
         </is>
       </c>
       <c r="B991" s="23">
-        <v>44040</v>
+        <v>44088</v>
       </c>
     </row>
     <row r="992" spans="1:2" s="0" outlineLevel="0">
@@ -10307,7 +10307,7 @@
         </is>
       </c>
       <c r="B992" s="23">
-        <v>44040</v>
+        <v>44088</v>
       </c>
     </row>
     <row r="993" spans="1:2" s="0" outlineLevel="0">
@@ -10317,7 +10317,7 @@
         </is>
       </c>
       <c r="B993" s="23">
-        <v>44043</v>
+        <v>44088</v>
       </c>
     </row>
     <row r="994" spans="1:2" s="0" outlineLevel="0">
@@ -10327,7 +10327,7 @@
         </is>
       </c>
       <c r="B994" s="23">
-        <v>44043</v>
+        <v>44088</v>
       </c>
     </row>
     <row r="995" spans="1:2" s="0" outlineLevel="0">
@@ -10337,7 +10337,7 @@
         </is>
       </c>
       <c r="B995" s="23">
-        <v>44043</v>
+        <v>44088</v>
       </c>
     </row>
     <row r="996" spans="1:2" s="0" outlineLevel="0">
@@ -10347,7 +10347,7 @@
         </is>
       </c>
       <c r="B996" s="23">
-        <v>44043</v>
+        <v>44088</v>
       </c>
     </row>
     <row r="997" spans="1:2" s="0" outlineLevel="0">
@@ -10357,7 +10357,7 @@
         </is>
       </c>
       <c r="B997" s="23">
-        <v>44043</v>
+        <v>44088</v>
       </c>
     </row>
     <row r="998" spans="1:2" s="0" outlineLevel="0">
@@ -10367,7 +10367,7 @@
         </is>
       </c>
       <c r="B998" s="23">
-        <v>44043</v>
+        <v>44088</v>
       </c>
     </row>
     <row r="999" spans="1:2" s="0" outlineLevel="0">
@@ -10377,7 +10377,7 @@
         </is>
       </c>
       <c r="B999" s="23">
-        <v>44043</v>
+        <v>44088</v>
       </c>
     </row>
     <row r="1000" spans="1:2" s="0" outlineLevel="0">
@@ -10387,7 +10387,7 @@
         </is>
       </c>
       <c r="B1000" s="23">
-        <v>44045</v>
+        <v>46029</v>
       </c>
     </row>
     <row r="1001" spans="1:2" s="0" outlineLevel="0">
@@ -10397,7 +10397,7 @@
         </is>
       </c>
       <c r="B1001" s="23">
-        <v>44048</v>
+        <v>44086</v>
       </c>
     </row>
     <row r="1002" spans="1:2" s="0" outlineLevel="0">
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="B1002" s="23">
-        <v>44048</v>
+        <v>44086</v>
       </c>
     </row>
     <row r="1003" spans="1:2" s="0" outlineLevel="0">
@@ -10417,7 +10417,7 @@
         </is>
       </c>
       <c r="B1003" s="23">
-        <v>44048</v>
+        <v>44086</v>
       </c>
     </row>
     <row r="1004" spans="1:2" s="0" outlineLevel="0">
@@ -10597,7 +10597,7 @@
         </is>
       </c>
       <c r="B1021" s="23">
-        <v>44073</v>
+        <v>44087</v>
       </c>
     </row>
     <row r="1022" spans="1:2" s="0" outlineLevel="0">
@@ -11377,7 +11377,7 @@
         </is>
       </c>
       <c r="B1099" s="23">
-        <v>46003</v>
+        <v>46030</v>
       </c>
     </row>
     <row r="1100" spans="1:2" s="0" outlineLevel="0">
@@ -11387,7 +11387,7 @@
         </is>
       </c>
       <c r="B1100" s="23">
-        <v>46003</v>
+        <v>46030</v>
       </c>
     </row>
     <row r="1101" spans="1:2" s="0" outlineLevel="0">
@@ -11397,7 +11397,7 @@
         </is>
       </c>
       <c r="B1101" s="23">
-        <v>46003</v>
+        <v>46030</v>
       </c>
     </row>
     <row r="1102" spans="1:2" s="0" outlineLevel="0">
@@ -11407,7 +11407,7 @@
         </is>
       </c>
       <c r="B1102" s="23">
-        <v>46003</v>
+        <v>46030</v>
       </c>
     </row>
     <row r="1103" spans="1:2" s="0" outlineLevel="0">
@@ -11417,7 +11417,7 @@
         </is>
       </c>
       <c r="B1103" s="23">
-        <v>46003</v>
+        <v>46030</v>
       </c>
     </row>
     <row r="1104" spans="1:2" s="0" outlineLevel="0">
@@ -11427,7 +11427,7 @@
         </is>
       </c>
       <c r="B1104" s="23">
-        <v>46003</v>
+        <v>46030</v>
       </c>
     </row>
     <row r="1105" spans="1:2" s="0" outlineLevel="0">
@@ -11437,7 +11437,7 @@
         </is>
       </c>
       <c r="B1105" s="23">
-        <v>46003</v>
+        <v>46030</v>
       </c>
     </row>
     <row r="1106" spans="1:2" s="0" outlineLevel="0">
@@ -11447,7 +11447,7 @@
         </is>
       </c>
       <c r="B1106" s="23">
-        <v>46003</v>
+        <v>46030</v>
       </c>
     </row>
     <row r="1107" spans="1:2" s="0" outlineLevel="0">
@@ -11457,7 +11457,7 @@
         </is>
       </c>
       <c r="B1107" s="23">
-        <v>46003</v>
+        <v>46030</v>
       </c>
     </row>
     <row r="1108" spans="1:2" s="0" outlineLevel="0">
@@ -11467,7 +11467,7 @@
         </is>
       </c>
       <c r="B1108" s="23">
-        <v>46013</v>
+        <v>46030</v>
       </c>
     </row>
     <row r="1109" spans="1:2" s="0" outlineLevel="0">
@@ -11477,7 +11477,7 @@
         </is>
       </c>
       <c r="B1109" s="23">
-        <v>46013</v>
+        <v>46030</v>
       </c>
     </row>
     <row r="1110" spans="1:2" s="0" outlineLevel="0">
@@ -11487,7 +11487,7 @@
         </is>
       </c>
       <c r="B1110" s="23">
-        <v>46013</v>
+        <v>46030</v>
       </c>
     </row>
     <row r="1111" spans="1:2" s="0" outlineLevel="0">
@@ -11497,7 +11497,7 @@
         </is>
       </c>
       <c r="B1111" s="23">
-        <v>46013</v>
+        <v>46030</v>
       </c>
     </row>
     <row r="1112" spans="1:2" s="0" outlineLevel="0">
@@ -11507,7 +11507,7 @@
         </is>
       </c>
       <c r="B1112" s="23">
-        <v>46014</v>
+        <v>46029</v>
       </c>
     </row>
     <row r="1113" spans="1:2" s="0" outlineLevel="0">
@@ -11517,7 +11517,7 @@
         </is>
       </c>
       <c r="B1113" s="23">
-        <v>46014</v>
+        <v>46029</v>
       </c>
     </row>
     <row r="1114" spans="1:2" s="0" outlineLevel="0">
@@ -11527,7 +11527,7 @@
         </is>
       </c>
       <c r="B1114" s="23">
-        <v>46014</v>
+        <v>46029</v>
       </c>
     </row>
     <row r="1115" spans="1:2" s="0" outlineLevel="0">
@@ -11537,7 +11537,7 @@
         </is>
       </c>
       <c r="B1115" s="23">
-        <v>46014</v>
+        <v>46029</v>
       </c>
     </row>
     <row r="1116" spans="1:2" s="0" outlineLevel="0">
@@ -11987,7 +11987,7 @@
         </is>
       </c>
       <c r="B1160" s="23">
-        <v>71022</v>
+        <v>71072</v>
       </c>
     </row>
     <row r="1161" spans="1:2" s="0" outlineLevel="0">
@@ -11997,7 +11997,7 @@
         </is>
       </c>
       <c r="B1161" s="23">
-        <v>71022</v>
+        <v>71072</v>
       </c>
     </row>
     <row r="1162" spans="1:2" s="0" outlineLevel="0">
@@ -12007,7 +12007,7 @@
         </is>
       </c>
       <c r="B1162" s="23">
-        <v>71022</v>
+        <v>71072</v>
       </c>
     </row>
     <row r="1163" spans="1:2" s="0" outlineLevel="0">
@@ -12017,7 +12017,7 @@
         </is>
       </c>
       <c r="B1163" s="23">
-        <v>71022</v>
+        <v>71072</v>
       </c>
     </row>
     <row r="1164" spans="1:2" s="0" outlineLevel="0">
@@ -12027,7 +12027,7 @@
         </is>
       </c>
       <c r="B1164" s="23">
-        <v>71022</v>
+        <v>71072</v>
       </c>
     </row>
     <row r="1165" spans="1:2" s="0" outlineLevel="0">
@@ -12037,7 +12037,7 @@
         </is>
       </c>
       <c r="B1165" s="23">
-        <v>71022</v>
+        <v>71072</v>
       </c>
     </row>
     <row r="1166" spans="1:2" s="0" outlineLevel="0">
@@ -12047,7 +12047,7 @@
         </is>
       </c>
       <c r="B1166" s="23">
-        <v>71022</v>
+        <v>71072</v>
       </c>
     </row>
     <row r="1167" spans="1:2" s="0" outlineLevel="0">
@@ -12057,7 +12057,7 @@
         </is>
       </c>
       <c r="B1167" s="23">
-        <v>71022</v>
+        <v>71072</v>
       </c>
     </row>
     <row r="1168" spans="1:2" s="0" outlineLevel="0">
@@ -12067,7 +12067,7 @@
         </is>
       </c>
       <c r="B1168" s="23">
-        <v>71022</v>
+        <v>71072</v>
       </c>
     </row>
     <row r="1169" spans="1:2" s="0" outlineLevel="0">
@@ -12417,7 +12417,7 @@
         </is>
       </c>
       <c r="B1203" s="23">
-        <v>71057</v>
+        <v>71071</v>
       </c>
     </row>
     <row r="1204" spans="1:2" s="0" outlineLevel="0">
@@ -12447,7 +12447,7 @@
         </is>
       </c>
       <c r="B1206" s="23">
-        <v>71069</v>
+        <v>71071</v>
       </c>
     </row>
     <row r="1207" spans="1:2" s="0" outlineLevel="0">
@@ -12457,7 +12457,7 @@
         </is>
       </c>
       <c r="B1207" s="23">
-        <v>71069</v>
+        <v>71071</v>
       </c>
     </row>
     <row r="1208" spans="1:2" s="0" outlineLevel="0">
@@ -12467,7 +12467,7 @@
         </is>
       </c>
       <c r="B1208" s="23">
-        <v>71069</v>
+        <v>71071</v>
       </c>
     </row>
     <row r="1209" spans="1:2" s="0" outlineLevel="0">
@@ -13017,7 +13017,7 @@
         </is>
       </c>
       <c r="B1263" s="23">
-        <v>73006</v>
+        <v>73110</v>
       </c>
     </row>
     <row r="1264" spans="1:2" s="0" outlineLevel="0">
@@ -13027,7 +13027,7 @@
         </is>
       </c>
       <c r="B1264" s="23">
-        <v>73006</v>
+        <v>73110</v>
       </c>
     </row>
     <row r="1265" spans="1:2" s="0" outlineLevel="0">
@@ -13037,7 +13037,7 @@
         </is>
       </c>
       <c r="B1265" s="23">
-        <v>73006</v>
+        <v>73110</v>
       </c>
     </row>
     <row r="1266" spans="1:2" s="0" outlineLevel="0">
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="B1266" s="23">
-        <v>73006</v>
+        <v>73110</v>
       </c>
     </row>
     <row r="1267" spans="1:2" s="0" outlineLevel="0">
@@ -13057,7 +13057,7 @@
         </is>
       </c>
       <c r="B1267" s="23">
-        <v>73006</v>
+        <v>73110</v>
       </c>
     </row>
     <row r="1268" spans="1:2" s="0" outlineLevel="0">
@@ -13067,7 +13067,7 @@
         </is>
       </c>
       <c r="B1268" s="23">
-        <v>73006</v>
+        <v>73110</v>
       </c>
     </row>
     <row r="1269" spans="1:2" s="0" outlineLevel="0">
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="B1269" s="23">
-        <v>73006</v>
+        <v>73110</v>
       </c>
     </row>
     <row r="1270" spans="1:2" s="0" outlineLevel="0">
@@ -13087,7 +13087,7 @@
         </is>
       </c>
       <c r="B1270" s="23">
-        <v>73006</v>
+        <v>73110</v>
       </c>
     </row>
     <row r="1271" spans="1:2" s="0" outlineLevel="0">
@@ -13097,7 +13097,7 @@
         </is>
       </c>
       <c r="B1271" s="23">
-        <v>73006</v>
+        <v>73110</v>
       </c>
     </row>
     <row r="1272" spans="1:2" s="0" outlineLevel="0">
@@ -13107,7 +13107,7 @@
         </is>
       </c>
       <c r="B1272" s="23">
-        <v>73006</v>
+        <v>73110</v>
       </c>
     </row>
     <row r="1273" spans="1:2" s="0" outlineLevel="0">
@@ -13117,7 +13117,7 @@
         </is>
       </c>
       <c r="B1273" s="23">
-        <v>73006</v>
+        <v>73110</v>
       </c>
     </row>
     <row r="1274" spans="1:2" s="0" outlineLevel="0">
@@ -13127,7 +13127,7 @@
         </is>
       </c>
       <c r="B1274" s="23">
-        <v>73006</v>
+        <v>73110</v>
       </c>
     </row>
     <row r="1275" spans="1:2" s="0" outlineLevel="0">
@@ -13137,7 +13137,7 @@
         </is>
       </c>
       <c r="B1275" s="23">
-        <v>73006</v>
+        <v>73110</v>
       </c>
     </row>
     <row r="1276" spans="1:2" s="0" outlineLevel="0">
@@ -13147,7 +13147,7 @@
         </is>
       </c>
       <c r="B1276" s="23">
-        <v>73006</v>
+        <v>73110</v>
       </c>
     </row>
     <row r="1277" spans="1:2" s="0" outlineLevel="0">
@@ -13157,7 +13157,7 @@
         </is>
       </c>
       <c r="B1277" s="23">
-        <v>73009</v>
+        <v>73111</v>
       </c>
     </row>
     <row r="1278" spans="1:2" s="0" outlineLevel="0">
@@ -13167,7 +13167,7 @@
         </is>
       </c>
       <c r="B1278" s="23">
-        <v>73009</v>
+        <v>73111</v>
       </c>
     </row>
     <row r="1279" spans="1:2" s="0" outlineLevel="0">
@@ -13177,7 +13177,7 @@
         </is>
       </c>
       <c r="B1279" s="23">
-        <v>73009</v>
+        <v>73111</v>
       </c>
     </row>
     <row r="1280" spans="1:2" s="0" outlineLevel="0">
@@ -13187,7 +13187,7 @@
         </is>
       </c>
       <c r="B1280" s="23">
-        <v>73009</v>
+        <v>73111</v>
       </c>
     </row>
     <row r="1281" spans="1:2" s="0" outlineLevel="0">
@@ -13197,7 +13197,7 @@
         </is>
       </c>
       <c r="B1281" s="23">
-        <v>73009</v>
+        <v>73111</v>
       </c>
     </row>
     <row r="1282" spans="1:2" s="0" outlineLevel="0">
@@ -13207,7 +13207,7 @@
         </is>
       </c>
       <c r="B1282" s="23">
-        <v>73009</v>
+        <v>73111</v>
       </c>
     </row>
     <row r="1283" spans="1:2" s="0" outlineLevel="0">
@@ -13217,7 +13217,7 @@
         </is>
       </c>
       <c r="B1283" s="23">
-        <v>73009</v>
+        <v>73111</v>
       </c>
     </row>
     <row r="1284" spans="1:2" s="0" outlineLevel="0">
@@ -13227,7 +13227,7 @@
         </is>
       </c>
       <c r="B1284" s="23">
-        <v>73009</v>
+        <v>73111</v>
       </c>
     </row>
     <row r="1285" spans="1:2" s="0" outlineLevel="0">
@@ -13237,7 +13237,7 @@
         </is>
       </c>
       <c r="B1285" s="23">
-        <v>73009</v>
+        <v>73111</v>
       </c>
     </row>
     <row r="1286" spans="1:2" s="0" outlineLevel="0">
@@ -13247,7 +13247,7 @@
         </is>
       </c>
       <c r="B1286" s="23">
-        <v>73009</v>
+        <v>73111</v>
       </c>
     </row>
     <row r="1287" spans="1:2" s="0" outlineLevel="0">
@@ -13257,7 +13257,7 @@
         </is>
       </c>
       <c r="B1287" s="23">
-        <v>73009</v>
+        <v>73111</v>
       </c>
     </row>
     <row r="1288" spans="1:2" s="0" outlineLevel="0">
@@ -13267,7 +13267,7 @@
         </is>
       </c>
       <c r="B1288" s="23">
-        <v>73009</v>
+        <v>73111</v>
       </c>
     </row>
     <row r="1289" spans="1:2" s="0" outlineLevel="0">
@@ -13277,7 +13277,7 @@
         </is>
       </c>
       <c r="B1289" s="23">
-        <v>73009</v>
+        <v>73111</v>
       </c>
     </row>
     <row r="1290" spans="1:2" s="0" outlineLevel="0">
@@ -13287,7 +13287,7 @@
         </is>
       </c>
       <c r="B1290" s="23">
-        <v>73009</v>
+        <v>73111</v>
       </c>
     </row>
     <row r="1291" spans="1:2" s="0" outlineLevel="0">
@@ -13437,7 +13437,7 @@
         </is>
       </c>
       <c r="B1305" s="23">
-        <v>73032</v>
+        <v>73110</v>
       </c>
     </row>
     <row r="1306" spans="1:2" s="0" outlineLevel="0">
@@ -13447,7 +13447,7 @@
         </is>
       </c>
       <c r="B1306" s="23">
-        <v>73032</v>
+        <v>73110</v>
       </c>
     </row>
     <row r="1307" spans="1:2" s="0" outlineLevel="0">
@@ -13457,7 +13457,7 @@
         </is>
       </c>
       <c r="B1307" s="23">
-        <v>73032</v>
+        <v>73110</v>
       </c>
     </row>
     <row r="1308" spans="1:2" s="0" outlineLevel="0">
@@ -13467,7 +13467,7 @@
         </is>
       </c>
       <c r="B1308" s="23">
-        <v>73032</v>
+        <v>73110</v>
       </c>
     </row>
     <row r="1309" spans="1:2" s="0" outlineLevel="0">
@@ -13477,7 +13477,7 @@
         </is>
       </c>
       <c r="B1309" s="23">
-        <v>73032</v>
+        <v>73110</v>
       </c>
     </row>
     <row r="1310" spans="1:2" s="0" outlineLevel="0">
@@ -13487,7 +13487,7 @@
         </is>
       </c>
       <c r="B1310" s="23">
-        <v>73032</v>
+        <v>73110</v>
       </c>
     </row>
     <row r="1311" spans="1:2" s="0" outlineLevel="0">
@@ -13497,7 +13497,7 @@
         </is>
       </c>
       <c r="B1311" s="23">
-        <v>73040</v>
+        <v>71072</v>
       </c>
     </row>
     <row r="1312" spans="1:2" s="0" outlineLevel="0">
@@ -13507,7 +13507,7 @@
         </is>
       </c>
       <c r="B1312" s="23">
-        <v>73040</v>
+        <v>71072</v>
       </c>
     </row>
     <row r="1313" spans="1:2" s="0" outlineLevel="0">
@@ -13517,7 +13517,7 @@
         </is>
       </c>
       <c r="B1313" s="23">
-        <v>73040</v>
+        <v>71072</v>
       </c>
     </row>
     <row r="1314" spans="1:2" s="0" outlineLevel="0">
@@ -13527,7 +13527,7 @@
         </is>
       </c>
       <c r="B1314" s="23">
-        <v>73040</v>
+        <v>71072</v>
       </c>
     </row>
     <row r="1315" spans="1:2" s="0" outlineLevel="0">
@@ -13537,7 +13537,7 @@
         </is>
       </c>
       <c r="B1315" s="23">
-        <v>73040</v>
+        <v>71072</v>
       </c>
     </row>
     <row r="1316" spans="1:2" s="0" outlineLevel="0">
@@ -13547,7 +13547,7 @@
         </is>
       </c>
       <c r="B1316" s="23">
-        <v>73040</v>
+        <v>71072</v>
       </c>
     </row>
     <row r="1317" spans="1:2" s="0" outlineLevel="0">
@@ -13727,7 +13727,7 @@
         </is>
       </c>
       <c r="B1334" s="23">
-        <v>73083</v>
+        <v>73111</v>
       </c>
     </row>
     <row r="1335" spans="1:2" s="0" outlineLevel="0">
@@ -13737,7 +13737,7 @@
         </is>
       </c>
       <c r="B1335" s="23">
-        <v>73083</v>
+        <v>73111</v>
       </c>
     </row>
     <row r="1336" spans="1:2" s="0" outlineLevel="0">
@@ -13747,7 +13747,7 @@
         </is>
       </c>
       <c r="B1336" s="23">
-        <v>73083</v>
+        <v>73111</v>
       </c>
     </row>
     <row r="1337" spans="1:2" s="0" outlineLevel="0">
@@ -13757,7 +13757,7 @@
         </is>
       </c>
       <c r="B1337" s="23">
-        <v>73083</v>
+        <v>73111</v>
       </c>
     </row>
     <row r="1338" spans="1:2" s="0" outlineLevel="0">
@@ -13767,7 +13767,7 @@
         </is>
       </c>
       <c r="B1338" s="23">
-        <v>73083</v>
+        <v>73111</v>
       </c>
     </row>
     <row r="1339" spans="1:2" s="0" outlineLevel="0">
@@ -13777,7 +13777,7 @@
         </is>
       </c>
       <c r="B1339" s="23">
-        <v>73083</v>
+        <v>73111</v>
       </c>
     </row>
     <row r="1340" spans="1:2" s="0" outlineLevel="0">
@@ -13787,7 +13787,7 @@
         </is>
       </c>
       <c r="B1340" s="23">
-        <v>73083</v>
+        <v>73111</v>
       </c>
     </row>
     <row r="1341" spans="1:2" s="0" outlineLevel="0">
@@ -13797,7 +13797,7 @@
         </is>
       </c>
       <c r="B1341" s="23">
-        <v>73083</v>
+        <v>73111</v>
       </c>
     </row>
     <row r="1342" spans="1:2" s="0" outlineLevel="0">
@@ -13807,7 +13807,7 @@
         </is>
       </c>
       <c r="B1342" s="23">
-        <v>73083</v>
+        <v>73111</v>
       </c>
     </row>
     <row r="1343" spans="1:2" s="0" outlineLevel="0">
@@ -13817,7 +13817,7 @@
         </is>
       </c>
       <c r="B1343" s="23">
-        <v>73083</v>
+        <v>73111</v>
       </c>
     </row>
     <row r="1344" spans="1:2" s="0" outlineLevel="0">
@@ -13827,7 +13827,7 @@
         </is>
       </c>
       <c r="B1344" s="23">
-        <v>73083</v>
+        <v>73111</v>
       </c>
     </row>
     <row r="1345" spans="1:2" s="0" outlineLevel="0">
@@ -13837,7 +13837,7 @@
         </is>
       </c>
       <c r="B1345" s="23">
-        <v>73083</v>
+        <v>73111</v>
       </c>
     </row>
     <row r="1346" spans="1:2" s="0" outlineLevel="0">
@@ -13847,7 +13847,7 @@
         </is>
       </c>
       <c r="B1346" s="23">
-        <v>73083</v>
+        <v>73111</v>
       </c>
     </row>
     <row r="1347" spans="1:2" s="0" outlineLevel="0">
@@ -13857,7 +13857,7 @@
         </is>
       </c>
       <c r="B1347" s="23">
-        <v>73083</v>
+        <v>73111</v>
       </c>
     </row>
     <row r="1348" spans="1:2" s="0" outlineLevel="0">
@@ -13867,7 +13867,7 @@
         </is>
       </c>
       <c r="B1348" s="23">
-        <v>73083</v>
+        <v>73111</v>
       </c>
     </row>
     <row r="1349" spans="1:2" s="0" outlineLevel="0">
@@ -13877,7 +13877,7 @@
         </is>
       </c>
       <c r="B1349" s="23">
-        <v>73083</v>
+        <v>73111</v>
       </c>
     </row>
     <row r="1350" spans="1:2" s="0" outlineLevel="0">
@@ -13887,7 +13887,7 @@
         </is>
       </c>
       <c r="B1350" s="23">
-        <v>73083</v>
+        <v>73111</v>
       </c>
     </row>
     <row r="1351" spans="1:2" s="0" outlineLevel="0">
@@ -13897,7 +13897,7 @@
         </is>
       </c>
       <c r="B1351" s="23">
-        <v>73083</v>
+        <v>73111</v>
       </c>
     </row>
     <row r="1352" spans="1:2" s="0" outlineLevel="0">
